--- a/docs/proposal/기획서 업데이트 이력.xlsx
+++ b/docs/proposal/기획서 업데이트 이력.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zereo\Desktop\Project\ContentsIT_Capston_Design\docs\proposal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21071A06-7054-4F8B-A4C9-9932B08A6AA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A6B033-757E-42C7-B01D-0709DDF961B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12420" yWindow="540" windowWidth="15690" windowHeight="14685" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13080" yWindow="15" windowWidth="15690" windowHeight="14685" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시스템" sheetId="1" r:id="rId1"/>
     <sheet name="아트&amp;그래픽" sheetId="3" r:id="rId2"/>
+    <sheet name="리소스" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>버전</t>
   </si>
@@ -123,6 +124,56 @@
       </rPr>
       <t>초안</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리소스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기획서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초안</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.10.06</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -734,7 +785,7 @@
   </sheetPr>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -994,4 +1045,273 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC5836EB-D3D5-4EBC-BEFB-779FE746EFA9}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="49" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="5" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/proposal/기획서 업데이트 이력.xlsx
+++ b/docs/proposal/기획서 업데이트 이력.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zereo\Desktop\Project\ContentsIT_Capston_Design\docs\proposal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A6B033-757E-42C7-B01D-0709DDF961B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C3FB1B-E062-4BB7-95EC-0CED5D937E79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13080" yWindow="15" windowWidth="15690" windowHeight="14685" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="45" windowWidth="15690" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시스템" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>버전</t>
   </si>
@@ -174,6 +174,76 @@
   </si>
   <si>
     <t>2021.10.06</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.10.08</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이지원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스토리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> flowchart, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경쟁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 방법, 오브젝트 활성화,
+규칙 추가 방법 수정.
+대전 모드 미션 내용 추가
+캐릭터 밸런싱 항목 추가</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -181,7 +251,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -192,10 +262,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -239,6 +311,12 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -266,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -285,6 +363,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,8 +590,8 @@
   </sheetPr>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -568,12 +652,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+    <row r="4" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
@@ -1054,7 +1148,7 @@
   </sheetPr>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>

--- a/docs/proposal/기획서 업데이트 이력.xlsx
+++ b/docs/proposal/기획서 업데이트 이력.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zereo\Desktop\Project\ContentsIT_Capston_Design\docs\proposal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C3FB1B-E062-4BB7-95EC-0CED5D937E79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBA2DD1-051E-4A99-A461-57E1FC86ACFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="45" windowWidth="15690" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시스템" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>버전</t>
   </si>
@@ -244,6 +244,33 @@
 대전 모드 미션 내용 추가
 캐릭터 밸런싱 항목 추가</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>배경</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 리스트, 캐릭터 애니메이션 리스트 업데이트</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.10.25</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이지원</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -590,7 +617,7 @@
   </sheetPr>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -880,7 +907,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1148,8 +1175,8 @@
   </sheetPr>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1194,11 +1221,21 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>

--- a/docs/proposal/기획서 업데이트 이력.xlsx
+++ b/docs/proposal/기획서 업데이트 이력.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zereo\Desktop\Project\ContentsIT_Capston_Design\docs\proposal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBA2DD1-051E-4A99-A461-57E1FC86ACFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A056527-F410-452F-8D9A-F0B915C6B2F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12240" yWindow="450" windowWidth="15690" windowHeight="14685" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시스템" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>버전</t>
   </si>
@@ -271,6 +271,42 @@
   </si>
   <si>
     <t>이지원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.10.28</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이지원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Asset </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 추가, UI 리스트 업데이트</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1176,7 +1212,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1238,11 +1274,21 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>

--- a/docs/proposal/기획서 업데이트 이력.xlsx
+++ b/docs/proposal/기획서 업데이트 이력.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zereo\Desktop\Project\ContentsIT_Capston_Design\docs\proposal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A056527-F410-452F-8D9A-F0B915C6B2F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C2918B-C4A3-4431-8139-28F321D188A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12240" yWindow="450" windowWidth="15690" windowHeight="14685" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시스템" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>버전</t>
   </si>
@@ -307,6 +307,22 @@
       </rPr>
       <t xml:space="preserve"> 추가, UI 리스트 업데이트</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>음악 리스트 업데이트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.11.01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이지원</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -314,7 +330,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -380,6 +396,12 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -407,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -432,6 +454,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1212,7 +1237,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1291,11 +1316,21 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>

--- a/docs/proposal/기획서 업데이트 이력.xlsx
+++ b/docs/proposal/기획서 업데이트 이력.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zereo\Desktop\Project\ContentsIT_Capston_Design\docs\proposal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C2918B-C4A3-4431-8139-28F321D188A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D04FAC-65F8-4BC7-945D-3C318C3C3F7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11490" yWindow="0" windowWidth="17265" windowHeight="14685" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시스템" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>버전</t>
   </si>
@@ -319,6 +319,33 @@
   </si>
   <si>
     <t>2021.11.01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이지원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>리스트별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 링크 삽입, 스크립트 리스트 추가</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.11.07</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1237,7 +1264,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1333,11 +1360,21 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
